--- a/outputs-HGR-r202/o__Lachnospirales.xlsx
+++ b/outputs-HGR-r202/o__Lachnospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4709,6 +5494,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4736,6 +5526,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4763,6 +5558,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4790,6 +5590,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4817,6 +5622,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -4844,6 +5654,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -4871,6 +5686,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4898,6 +5718,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -4925,6 +5750,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -4952,6 +5782,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -4979,6 +5814,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5006,6 +5846,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5033,6 +5878,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5060,6 +5910,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5087,6 +5942,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5114,6 +5974,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5141,6 +6006,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5168,6 +6038,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5195,6 +6070,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5222,6 +6102,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5249,6 +6134,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5276,6 +6166,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5303,6 +6198,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5330,6 +6230,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -5357,6 +6262,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -5384,6 +6294,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -5411,6 +6326,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -5438,6 +6358,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -5465,6 +6390,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -5492,6 +6422,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -5519,6 +6454,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -5546,6 +6486,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -5573,6 +6518,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -5600,6 +6550,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -5627,6 +6582,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -5654,6 +6614,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -5681,6 +6646,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -5708,6 +6678,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -5735,6 +6710,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -5762,6 +6742,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -5789,6 +6774,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -5816,6 +6806,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -5843,6 +6838,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -5870,6 +6870,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -5897,6 +6902,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -5924,6 +6934,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -5951,6 +6966,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -5978,6 +6998,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6005,6 +7030,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6032,6 +7062,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6059,6 +7094,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6086,6 +7126,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6113,6 +7158,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6140,6 +7190,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6167,6 +7222,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -6194,6 +7254,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -6221,6 +7286,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -6248,6 +7318,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -6275,6 +7350,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -6302,6 +7382,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -6329,6 +7414,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -6356,6 +7446,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -6383,6 +7478,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -6410,6 +7510,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -6437,6 +7542,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -6464,6 +7574,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -6491,6 +7606,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -6518,6 +7638,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -6545,6 +7670,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -6572,6 +7702,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -6599,6 +7734,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -6626,6 +7766,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -6653,6 +7798,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -6680,6 +7830,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -6707,6 +7862,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -6734,6 +7894,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -6761,6 +7926,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -6788,6 +7958,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -6815,6 +7990,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -6842,6 +8022,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -6869,6 +8054,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -6896,6 +8086,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -6923,6 +8118,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -6950,6 +8150,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -6977,6 +8182,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -7004,6 +8214,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -7031,6 +8246,11 @@
           <t>f__Anaerotignaceae</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>f__Anaerotignaceae</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -7058,6 +8278,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -7085,6 +8310,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -7112,6 +8342,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -7139,6 +8374,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -7166,6 +8406,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -7193,6 +8438,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -7220,6 +8470,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -7247,6 +8502,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -7274,6 +8534,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -7301,6 +8566,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -7328,6 +8598,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -7355,6 +8630,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -7382,6 +8662,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -7409,6 +8694,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -7436,6 +8726,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -7463,6 +8758,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -7490,6 +8790,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -7517,6 +8822,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -7544,6 +8854,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -7571,6 +8886,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -7598,6 +8918,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -7625,6 +8950,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -7652,6 +8982,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -7679,6 +9014,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -7706,6 +9046,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -7733,6 +9078,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -7760,6 +9110,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -7787,6 +9142,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -7814,6 +9174,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -7841,6 +9206,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -7868,6 +9238,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -7895,6 +9270,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -7922,6 +9302,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -7949,6 +9334,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -7976,6 +9366,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -8003,6 +9398,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -8030,6 +9430,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -8057,6 +9462,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -8084,6 +9494,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -8111,6 +9526,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -8138,6 +9558,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -8165,6 +9590,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -8192,6 +9622,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -8219,6 +9654,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -8246,6 +9686,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -8273,6 +9718,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -8300,6 +9750,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -8327,6 +9782,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -8354,6 +9814,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -8381,6 +9846,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -8408,6 +9878,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -8435,6 +9910,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -8462,6 +9942,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -8489,6 +9974,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -8516,6 +10006,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -8543,6 +10038,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -8570,6 +10070,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -8597,6 +10102,11 @@
           <t>f__Lachnospiraceae</t>
         </is>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -8620,6 +10130,11 @@
         <v>0.9966176924480327</v>
       </c>
       <c r="G303" t="inlineStr">
+        <is>
+          <t>f__Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
         <is>
           <t>f__Lachnospiraceae</t>
         </is>
